--- a/data/long_bre/P23_10-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_10-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,42%</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,72%</t>
+          <t>-11,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-30,84%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 6,71</t>
+          <t>-14,96; 8,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 1,92</t>
+          <t>-19,29; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 32,59</t>
+          <t>-20,31; 7,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,08; 11,92</t>
+          <t>-45,69; 44,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-64,07; 22,57</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-61,86; 56,48</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 17,42</t>
+          <t>-14,57; 13,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 20,67</t>
+          <t>-3,27; 22,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 37,88</t>
+          <t>-15,19; 17,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 42,64</t>
+          <t>-21,53; 25,42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 49,42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,71; 39,24</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-10,78%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 13,28</t>
+          <t>-6,81; 13,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 11,78</t>
+          <t>-14,28; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 130,77</t>
+          <t>-12,28; 16,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 83,47</t>
+          <t>-34,38; 148,21</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-47,96; 51,49</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-46,77; 167,95</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 14,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 88,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 58,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,99%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 11,37</t>
+          <t>-8,64; 13,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 17,32</t>
+          <t>-22,33; 7,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 24,79</t>
+          <t>-8,13; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 34,53</t>
+          <t>-31,45; 88,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-60,34; 57,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-39,42; 132,82</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56,97%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 10,47</t>
+          <t>-15,7; 16,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 8,1</t>
+          <t>-9,82; 17,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 66,85</t>
+          <t>8,74; 42,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 68,72</t>
+          <t>-24,68; 36,19</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 35,89</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 157,13</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-25,35%</t>
+          <t>-26,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-34,95%</t>
+          <t>-11,47%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-62,06%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 2,01</t>
+          <t>-18,23; 8,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 0,5</t>
+          <t>-10,01; 8,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 9,41</t>
+          <t>-48,77; -9,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 2,38</t>
+          <t>-54,73; 52,47</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-42,78; 66,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-81,68; -33,75</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 18,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 22,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 40,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,96; 48,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-21,38%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-33,4%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-43,0%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 8,67</t>
+          <t>-15,19; 2,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 5,17</t>
+          <t>-18,15; -0,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 56,98</t>
+          <t>-23,48; -3,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 32,19</t>
+          <t>-45,65; 12,13</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-55,38; 0,49</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-65,0; -13,29</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>20,48</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>41,76%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 8,04</t>
+          <t>-7,76; 15,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -1,47</t>
+          <t>0,0; 21,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 36,71</t>
+          <t>10,57; 31,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,47; -3,42</t>
+          <t>-13,29; 34,34</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 47,36</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 74,91</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-36,66%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 11,36</t>
+          <t>-7,86; 9,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 9,7</t>
+          <t>-9,83; 5,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 26,76</t>
+          <t>-16,44; -0,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 21,39</t>
+          <t>-30,85; 61,61</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-37,65; 31,92</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-58,86; -3,32</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 7,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,01; 14,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 38,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 84,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-26,34%</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-32,23%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 2,98</t>
+          <t>-9,24; 8,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 11,71</t>
+          <t>-18,22; -0,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 15,01</t>
+          <t>0,13; 18,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 81,54</t>
+          <t>-29,79; 35,78</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-52,69; -2,91</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 104,62</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-14,72%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 12,24</t>
+          <t>-8,91; 11,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 9,34</t>
+          <t>-7,73; 10,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 27,03</t>
+          <t>-17,28; 5,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 17,43</t>
+          <t>-15,9; 26,42</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,02; 24,12</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-30,33; 11,83</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-5,54%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 16,93</t>
+          <t>-10,64; 8,37</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 5,44</t>
+          <t>0,36; 14,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 111,98</t>
+          <t>-17,24; 7,64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-41,3; 28,54</t>
+          <t>-33,51; 43,88</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 83,27</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; 38,6</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 20,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 6,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 126,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 29,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 18,63</t>
+          <t>-17,1; 2,95</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,29; 26,95</t>
+          <t>-5,34; 10,88</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 52,16</t>
+          <t>-11,25; 11,42</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,48; 72,1</t>
+          <t>-50,8; 13,25</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-24,6; 70,04</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-39,6; 60,78</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-9,92</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-36,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-39,15%</t>
+          <t>-0,0%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 0,93</t>
+          <t>-13,33; 11,13</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-19,63; -0,37</t>
+          <t>-10,43; 9,14</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-59,65; 3,32</t>
+          <t>-13,19; 13,89</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 0,1</t>
+          <t>-23,35; 25,07</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 17,7</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 31,48</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-11,44%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,75</t>
+          <t>-2,85; 18,41</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,71</t>
+          <t>-10,75; 4,88</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 11,29</t>
+          <t>-13,29; 10,16</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -3,22</t>
+          <t>-10,7; 122,97</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-38,36; 28,09</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-39,73; 46,44</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 16,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1,5; 20,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-14,6%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-29,78%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,47</t>
+          <t>-5,05; 22,56</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,84</t>
+          <t>-15,39; 6,58</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 17,6</t>
+          <t>-22,17; 6,35</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 15,33</t>
+          <t>-19,02; 153,77</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-45,32; 30,11</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-65,32; 34,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>15,03</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>33,06%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 20,23</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 27,4</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 20,32</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 54,94</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 74,82</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; 54,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-13,04</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-10,88</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-39,48%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-41,68%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-25,1; -0,27</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; -0,76</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 17,58</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-61,88; 1,27</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-63,31; -0,21</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-35,44; 98,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-5,09%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-20,53%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-8,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 3,06</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; -1,19</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 2,69</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 13,21</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; -4,89</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-26,8; 13,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 7,41</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 11,17</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 13,81</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 15,01</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 22,25</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 29,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 3,33</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 2,09</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; -0,32</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-19,34; 17,0</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 10,38</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-38,42; -0,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
